--- a/intelagr/D.开发管理/项目分组/项目分工表.xlsx
+++ b/intelagr/D.开发管理/项目分组/项目分工表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA443DA7-BC61-4862-ADF4-3EE2F4D18DEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一组" sheetId="1" r:id="rId1"/>
@@ -665,7 +666,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,6 +788,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,17 +817,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -828,6 +829,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -876,7 +880,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,9 +913,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,6 +965,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1119,27 +1157,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="5" width="10.625" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1147,224 +1185,224 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A27:A31"/>
@@ -1383,26 +1421,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1410,8 +1448,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1419,33 +1457,33 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1453,183 +1491,183 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
       <c r="B34" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1649,68 +1687,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="11"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1718,130 +1756,130 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1849,52 +1887,52 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
       <c r="B34" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
@@ -1916,138 +1954,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="11"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2055,116 +2093,116 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
       <c r="B34" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>160</v>
       </c>
@@ -2186,26 +2224,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2213,275 +2251,275 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
